--- a/Assets/Gimicks/Tables/DT_Text.xlsx
+++ b/Assets/Gimicks/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Gimicks\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381E1993-2C64-4274-9B9F-E6EE61201D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226A66B0-DB70-4998-976B-317533C4C187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -123,6 +123,30 @@
   </si>
   <si>
     <t>aaaaaaTESTTESTETETTETT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TestChoise_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Choose from 4choices</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TestChoise_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TestChoise_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>death</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -509,7 +533,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -519,8 +543,9 @@
     <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="22.375" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="23.25" customWidth="1"/>
+    <col min="8" max="8" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
@@ -644,7 +669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="19.5" thickBot="1">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -653,6 +678,45 @@
       </c>
       <c r="C9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1">

--- a/Assets/Gimicks/Tables/DT_Text.xlsx
+++ b/Assets/Gimicks/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Gimicks\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226A66B0-DB70-4998-976B-317533C4C187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AE3F5C-9CD3-4853-9E28-F89569BAEDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -147,6 +147,38 @@
   </si>
   <si>
     <t>death</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TestVoice_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I couldn't look back</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TestVoice_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You'd gone away from me</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I felt my heart aches</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I was afraid of following you</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TestVoice_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TestVoice_004</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -533,7 +565,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -719,6 +751,59 @@
         <v>31</v>
       </c>
     </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>12</v>
